--- a/biology/Zoologie/Deiléphile_de_Dahl/Deiléphile_de_Dahl.xlsx
+++ b/biology/Zoologie/Deiléphile_de_Dahl/Deiléphile_de_Dahl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_de_Dahl</t>
+          <t>Deiléphile_de_Dahl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyles dahlii
 Le Deiléphile de Dahl, Sphinx de Dahl ou Sphinx corse (Hyles dahlii) est une espèce de lépidoptères de la famille des Sphingidae, de la sous-famille des Macroglossinae et de la tribu des Macroglossini.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_de_Dahl</t>
+          <t>Deiléphile_de_Dahl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue en Espagne, Baléares, Corse et Sardaigne.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_de_Dahl</t>
+          <t>Deiléphile_de_Dahl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Envergure du mâle : de 26 à 37 mm.
 			Avers du mâle (coll.MHNT)
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_de_Dahl</t>
+          <t>Deiléphile_de_Dahl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les chenilles se nourrissent sur diverses plantes herbacées, dont Euphorbia paralias, Euphorbia myrsinites, Euphorbia characias, Euphorbia dendroides, Euphorbia pithyusa , Euphorbia pinea et Euphorbia Terracina .
 Période de vol : de juillet à août.</t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Deil%C3%A9phile_de_Dahl</t>
+          <t>Deiléphile_de_Dahl</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,11 +629,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Hylies dahlii a été décrite par l'entomologiste allemand Carl Geyer en 1828, sous le nom initial de Sphinx dahlii[1],[2]. La localité type est Cagliari, en Sardaigne.
-Synonymie
-Sphinx dahlii Geyer, [1828] — protonyme
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hylies dahlii a été décrite par l'entomologiste allemand Carl Geyer en 1828, sous le nom initial de Sphinx dahlii,. La localité type est Cagliari, en Sardaigne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Deiléphile_de_Dahl</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Deil%C3%A9phile_de_Dahl</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sphinx dahlii Geyer,  — protonyme
 Sphinx dahlii Boisduval, 1828
 Sphinx lutescens (Oberthür, 1904)
 Sphinx praenubila (Schultz, 1907)
